--- a/DSalgoCucumberProj/src/test/resources/Utlils/NewPython.xlsx
+++ b/DSalgoCucumberProj/src/test/resources/Utlils/NewPython.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>code</t>
   </si>
@@ -123,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -134,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -452,17 +458,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F58420E-A038-4EC1-8200-DD91D3B6E1F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="D3" sqref="D3" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,24 +476,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="157">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="79">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="79">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">

--- a/DSalgoCucumberProj/src/test/resources/Utlils/NewPython.xlsx
+++ b/DSalgoCucumberProj/src/test/resources/Utlils/NewPython.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavit\git\project\DsAlgoCucumberProject\DSalgoCucumberProj\src\test\resources\Utlils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheet\git\DsAlgoCucumberProject\DSalgoCucumberProj\src\test\resources\Utlils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85957E6D-E6F2-4CC3-B251-C60C34F6A42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCACA50-26BD-473A-998D-05305CD2868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="3735" windowWidth="14910" windowHeight="11295" xr2:uid="{310D9AC9-EA90-49EA-95DD-C5373C8C659A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{310D9AC9-EA90-49EA-95DD-C5373C8C659A}"/>
   </bookViews>
   <sheets>
     <sheet name="ArrayPython" sheetId="1" r:id="rId1"/>
+    <sheet name="Registration" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>code</t>
   </si>
@@ -77,12 +78,51 @@
   <si>
     <t>Element Not Found</t>
   </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>ninja&amp;4</t>
+  </si>
+  <si>
+    <t>abcd1234</t>
+  </si>
+  <si>
+    <t>sprint5</t>
+  </si>
+  <si>
+    <t>ninja4</t>
+  </si>
+  <si>
+    <t>abcd12@</t>
+  </si>
+  <si>
+    <t>abcd123@</t>
+  </si>
+  <si>
+    <t>abcd124@</t>
+  </si>
+  <si>
+    <t>abcd123</t>
+  </si>
+  <si>
+    <t>abcd12</t>
+  </si>
+  <si>
+    <t>sprintssnkanxklajwdoqwijsoiwswqdkqwdqdkdqdwqqwqwdqwqwdwqdqwdkwqhdqdqdwqdqwdwqdsprintssnkanxklajwdoqwijsoiwswqdkqwdqdkdqdwqqwqwdqwqwdwqdqwdkwqhdqdqdwqd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +141,25 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,31 +177,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{3E93D69A-5DB7-473E-B6C1-6B4E0B63BAC0}"/>
   </cellStyles>
@@ -160,9 +242,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +282,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +388,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,17 +540,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F58420E-A038-4EC1-8200-DD91D3B6E1F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="D3" sqref="D3" activeCellId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,31 +558,164 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="157">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="79">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="79">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE76D5B-3C13-4E69-8EDF-0DFC89667648}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <v>12345678</v>
+      </c>
+      <c r="C4" s="5">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{E8693E04-56A5-4E03-B4FC-03A67BD0DA6A}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{93AAEA6C-4DD3-4538-BD45-C6ACC031E78B}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{1D43D0E5-B3EA-4B68-BB04-1C4EB4A9340D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>